--- a/Эксперименты.xlsx
+++ b/Эксперименты.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1 эксперимент" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="2 эксперимент" sheetId="2" r:id="rId2"/>
+    <sheet name="3 эксперимент" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>List</t>
   </si>
@@ -28,6 +28,16 @@
   </si>
   <si>
     <t>№</t>
+  </si>
+  <si>
+    <t>Время</t>
+  </si>
+  <si>
+    <t>Количество блоков</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ </t>
   </si>
 </sst>
 </file>
@@ -63,13 +73,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -119,9 +132,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>'1 эксперимент'!$C$8:$C$17</c:f>
@@ -216,9 +226,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>'1 эксперимент'!$C$8:$C$17</c:f>
@@ -309,11 +316,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="78211712"/>
-        <c:axId val="78213504"/>
+        <c:axId val="54833920"/>
+        <c:axId val="54835456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78211712"/>
+        <c:axId val="54833920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -323,7 +330,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78213504"/>
+        <c:crossAx val="54835456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -331,7 +338,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78213504"/>
+        <c:axId val="54835456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -342,7 +349,441 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78211712"/>
+        <c:crossAx val="54833920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Анализ (мс)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2 эксперимент'!$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Время</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.3870953630796149E-2"/>
+                  <c:y val="-4.6601414406532517E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1050"/>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>'2 эксперимент'!$D$7:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2 эксперимент'!$E$7:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="54874112"/>
+        <c:axId val="54875648"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="54874112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="54875648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="54875648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="54874112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Поиск решения (мс)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3 эксперимент'!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Время</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="12700"/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>'3 эксперимент'!$F$3:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3 эксперимент'!$G$3:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="52087040"/>
+        <c:axId val="52105216"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="52087040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="52105216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="52105216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="52087040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -368,20 +809,90 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="15" name="Диаграмма 14"/>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -688,8 +1199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -859,24 +1370,285 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C6:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C8" s="2">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="2">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="2">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C11" s="2">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C12" s="2">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C13" s="2">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C14" s="2">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C15" s="2">
+        <v>9</v>
+      </c>
+      <c r="D15" s="1">
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C16" s="2">
+        <v>10</v>
+      </c>
+      <c r="D16" s="1">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="E2:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V29" sqref="V29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E5" s="2">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E6" s="2">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4</v>
+      </c>
+      <c r="G6" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E7" s="2">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E8" s="2">
+        <v>6</v>
+      </c>
+      <c r="F8" s="1">
+        <v>6</v>
+      </c>
+      <c r="G8" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E9" s="2">
+        <v>7</v>
+      </c>
+      <c r="F9" s="1">
+        <v>7</v>
+      </c>
+      <c r="G9" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E10" s="2">
+        <v>8</v>
+      </c>
+      <c r="F10" s="1">
+        <v>8</v>
+      </c>
+      <c r="G10" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E11" s="2">
+        <v>9</v>
+      </c>
+      <c r="F11" s="1">
+        <v>9</v>
+      </c>
+      <c r="G11" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E12" s="2">
+        <v>10</v>
+      </c>
+      <c r="F12" s="1">
+        <v>10</v>
+      </c>
+      <c r="G12" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="12:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="L17" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Эксперименты.xlsx
+++ b/Эксперименты.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1 эксперимент" sheetId="1" r:id="rId1"/>
     <sheet name="2 эксперимент" sheetId="2" r:id="rId2"/>
     <sheet name="3 эксперимент" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
   <si>
     <t>List</t>
   </si>
@@ -39,17 +39,71 @@
     <t xml:space="preserve">
  </t>
   </si>
+  <si>
+    <t>МНК</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>x^2</t>
+  </si>
+  <si>
+    <t>x*y</t>
+  </si>
+  <si>
+    <t>x^3</t>
+  </si>
+  <si>
+    <t>x^4</t>
+  </si>
+  <si>
+    <t>x^2 * y</t>
+  </si>
+  <si>
+    <t>a =</t>
+  </si>
+  <si>
+    <t>b =</t>
+  </si>
+  <si>
+    <t>c =</t>
+  </si>
+  <si>
+    <t>y кв</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>d^2</t>
+  </si>
+  <si>
+    <t>S =</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -61,7 +115,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -69,11 +123,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -83,6 +152,26 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -132,6 +221,30 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.3983377077865264E-2"/>
+                  <c:y val="6.8969816272965875E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:cat>
             <c:numRef>
               <c:f>'1 эксперимент'!$C$8:$C$17</c:f>
@@ -226,6 +339,28 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.8961067366579178E-2"/>
+                  <c:y val="-5.5516550014581507E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:cat>
             <c:numRef>
               <c:f>'1 эксперимент'!$C$8:$C$17</c:f>
@@ -316,11 +451,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="54833920"/>
-        <c:axId val="54835456"/>
+        <c:axId val="107305216"/>
+        <c:axId val="107311104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="54833920"/>
+        <c:axId val="107305216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -330,7 +465,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54835456"/>
+        <c:crossAx val="107311104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -338,7 +473,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="54835456"/>
+        <c:axId val="107311104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -349,7 +484,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54833920"/>
+        <c:crossAx val="107305216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -504,22 +639,22 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>29</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>31</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>35</c:v>
@@ -539,11 +674,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="54874112"/>
-        <c:axId val="54875648"/>
+        <c:axId val="107340544"/>
+        <c:axId val="107342080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="54874112"/>
+        <c:axId val="107340544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -553,7 +688,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54875648"/>
+        <c:crossAx val="107342080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -561,7 +696,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="54875648"/>
+        <c:axId val="107342080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -572,7 +707,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54874112"/>
+        <c:crossAx val="107340544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -750,11 +885,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="52087040"/>
-        <c:axId val="52105216"/>
+        <c:axId val="107736448"/>
+        <c:axId val="108676224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="52087040"/>
+        <c:axId val="107736448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -764,7 +899,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52105216"/>
+        <c:crossAx val="108676224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -772,7 +907,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52105216"/>
+        <c:axId val="108676224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -783,7 +918,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52087040"/>
+        <c:crossAx val="107736448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -845,15 +980,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:colOff>495299</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -879,16 +1014,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1200,7 +1335,7 @@
   <dimension ref="B7:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1370,10 +1505,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C6:E16"/>
+  <dimension ref="C4:AB33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="X34" sqref="X34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1381,7 +1516,12 @@
     <col min="4" max="4" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="R4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1392,7 +1532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C7" s="2">
         <v>1</v>
       </c>
@@ -1402,8 +1542,38 @@
       <c r="E7">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="S7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="W7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="X7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB7" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C8" s="2">
         <v>2</v>
       </c>
@@ -1413,8 +1583,46 @@
       <c r="E8">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="S8" s="5">
+        <v>1</v>
+      </c>
+      <c r="T8" s="5">
+        <v>10</v>
+      </c>
+      <c r="U8" s="5">
+        <f>S8*S8</f>
+        <v>1</v>
+      </c>
+      <c r="V8" s="5">
+        <f>S8*T8</f>
+        <v>10</v>
+      </c>
+      <c r="W8" s="5">
+        <f>U8*S8</f>
+        <v>1</v>
+      </c>
+      <c r="X8" s="5">
+        <f>W8*S8</f>
+        <v>1</v>
+      </c>
+      <c r="Y8" s="5">
+        <f>U8*T8</f>
+        <v>10</v>
+      </c>
+      <c r="Z8" s="5">
+        <f>$X$29*U8+$X$30*S8+$X$31</f>
+        <v>10.609090909090938</v>
+      </c>
+      <c r="AA8" s="5">
+        <f>T8-Z8</f>
+        <v>-0.60909090909093777</v>
+      </c>
+      <c r="AB8" s="5">
+        <f>AA8*AA8</f>
+        <v>0.37099173553722503</v>
+      </c>
+    </row>
+    <row r="9" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C9" s="2">
         <v>3</v>
       </c>
@@ -1424,8 +1632,46 @@
       <c r="E9">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="S9" s="5">
+        <v>2</v>
+      </c>
+      <c r="T9" s="5">
+        <v>14</v>
+      </c>
+      <c r="U9" s="5">
+        <f>S9*S9</f>
+        <v>4</v>
+      </c>
+      <c r="V9" s="5">
+        <f>S9*T9</f>
+        <v>28</v>
+      </c>
+      <c r="W9" s="5">
+        <f t="shared" ref="W9:W17" si="0">U9*S9</f>
+        <v>8</v>
+      </c>
+      <c r="X9" s="5">
+        <f>W9*S9</f>
+        <v>16</v>
+      </c>
+      <c r="Y9" s="5">
+        <f t="shared" ref="Y9:Y17" si="1">U9*T9</f>
+        <v>56</v>
+      </c>
+      <c r="Z9" s="5">
+        <f t="shared" ref="Z9:Z18" si="2">$X$29*U9+$X$30*S9+$X$31</f>
+        <v>13.275757575757581</v>
+      </c>
+      <c r="AA9" s="5">
+        <f t="shared" ref="AA9:AA18" si="3">T9-Z9</f>
+        <v>0.72424242424241925</v>
+      </c>
+      <c r="AB9" s="5">
+        <f t="shared" ref="AB9:AB18" si="4">AA9*AA9</f>
+        <v>0.52452708907253642</v>
+      </c>
+    </row>
+    <row r="10" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C10" s="2">
         <v>4</v>
       </c>
@@ -1433,10 +1679,48 @@
         <v>4</v>
       </c>
       <c r="E10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="S10" s="5">
+        <v>3</v>
+      </c>
+      <c r="T10" s="5">
+        <v>16</v>
+      </c>
+      <c r="U10" s="5">
+        <f t="shared" ref="U10:U17" si="5">S10*S10</f>
+        <v>9</v>
+      </c>
+      <c r="V10" s="5">
+        <f t="shared" ref="V10:V17" si="6">S10*T10</f>
+        <v>48</v>
+      </c>
+      <c r="W10" s="5">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="X10" s="5">
+        <f t="shared" ref="X10:X17" si="7">W10*S10</f>
+        <v>81</v>
+      </c>
+      <c r="Y10" s="5">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+      <c r="Z10" s="5">
+        <f t="shared" si="2"/>
+        <v>15.949999999999974</v>
+      </c>
+      <c r="AA10" s="5">
+        <f t="shared" si="3"/>
+        <v>5.000000000002558E-2</v>
+      </c>
+      <c r="AB10" s="5">
+        <f t="shared" si="4"/>
+        <v>2.5000000000025579E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C11" s="2">
         <v>5</v>
       </c>
@@ -1444,10 +1728,48 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="S11" s="5">
+        <v>4</v>
+      </c>
+      <c r="T11" s="5">
+        <v>19</v>
+      </c>
+      <c r="U11" s="5">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="V11" s="5">
+        <f t="shared" si="6"/>
+        <v>76</v>
+      </c>
+      <c r="W11" s="5">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="X11" s="5">
+        <f t="shared" si="7"/>
+        <v>256</v>
+      </c>
+      <c r="Y11" s="5">
+        <f t="shared" si="1"/>
+        <v>304</v>
+      </c>
+      <c r="Z11" s="5">
+        <f t="shared" si="2"/>
+        <v>18.631818181818119</v>
+      </c>
+      <c r="AA11" s="5">
+        <f t="shared" si="3"/>
+        <v>0.36818181818188123</v>
+      </c>
+      <c r="AB11" s="5">
+        <f t="shared" si="4"/>
+        <v>0.13555785123971584</v>
+      </c>
+    </row>
+    <row r="12" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C12" s="2">
         <v>6</v>
       </c>
@@ -1455,10 +1777,48 @@
         <v>6</v>
       </c>
       <c r="E12">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="S12" s="5">
+        <v>5</v>
+      </c>
+      <c r="T12" s="5">
+        <v>21</v>
+      </c>
+      <c r="U12" s="5">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="V12" s="5">
+        <f t="shared" si="6"/>
+        <v>105</v>
+      </c>
+      <c r="W12" s="5">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="X12" s="5">
+        <f t="shared" si="7"/>
+        <v>625</v>
+      </c>
+      <c r="Y12" s="5">
+        <f t="shared" si="1"/>
+        <v>525</v>
+      </c>
+      <c r="Z12" s="5">
+        <f t="shared" si="2"/>
+        <v>21.321212121212014</v>
+      </c>
+      <c r="AA12" s="5">
+        <f t="shared" si="3"/>
+        <v>-0.32121212121201381</v>
+      </c>
+      <c r="AB12" s="5">
+        <f t="shared" si="4"/>
+        <v>0.10317722681352146</v>
+      </c>
+    </row>
+    <row r="13" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C13" s="2">
         <v>7</v>
       </c>
@@ -1466,10 +1826,48 @@
         <v>7</v>
       </c>
       <c r="E13">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="S13" s="5">
+        <v>6</v>
+      </c>
+      <c r="T13" s="5">
+        <v>24</v>
+      </c>
+      <c r="U13" s="5">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+      <c r="V13" s="5">
+        <f t="shared" si="6"/>
+        <v>144</v>
+      </c>
+      <c r="W13" s="5">
+        <f t="shared" si="0"/>
+        <v>216</v>
+      </c>
+      <c r="X13" s="5">
+        <f t="shared" si="7"/>
+        <v>1296</v>
+      </c>
+      <c r="Y13" s="5">
+        <f t="shared" si="1"/>
+        <v>864</v>
+      </c>
+      <c r="Z13" s="5">
+        <f t="shared" si="2"/>
+        <v>24.01818181818166</v>
+      </c>
+      <c r="AA13" s="5">
+        <f t="shared" si="3"/>
+        <v>-1.8181818181659537E-2</v>
+      </c>
+      <c r="AB13" s="5">
+        <f t="shared" si="4"/>
+        <v>3.3057851239092531E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C14" s="2">
         <v>8</v>
       </c>
@@ -1477,10 +1875,48 @@
         <v>8</v>
       </c>
       <c r="E14">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="S14" s="5">
+        <v>7</v>
+      </c>
+      <c r="T14" s="5">
+        <v>26</v>
+      </c>
+      <c r="U14" s="5">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="V14" s="5">
+        <f t="shared" si="6"/>
+        <v>182</v>
+      </c>
+      <c r="W14" s="5">
+        <f t="shared" si="0"/>
+        <v>343</v>
+      </c>
+      <c r="X14" s="5">
+        <f t="shared" si="7"/>
+        <v>2401</v>
+      </c>
+      <c r="Y14" s="5">
+        <f t="shared" si="1"/>
+        <v>1274</v>
+      </c>
+      <c r="Z14" s="5">
+        <f t="shared" si="2"/>
+        <v>26.722727272727056</v>
+      </c>
+      <c r="AA14" s="5">
+        <f t="shared" si="3"/>
+        <v>-0.72272727272705595</v>
+      </c>
+      <c r="AB14" s="5">
+        <f t="shared" si="4"/>
+        <v>0.52233471074348836</v>
+      </c>
+    </row>
+    <row r="15" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C15" s="2">
         <v>9</v>
       </c>
@@ -1488,10 +1924,48 @@
         <v>9</v>
       </c>
       <c r="E15">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="S15" s="5">
+        <v>8</v>
+      </c>
+      <c r="T15" s="5">
+        <v>30</v>
+      </c>
+      <c r="U15" s="5">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="V15" s="5">
+        <f t="shared" si="6"/>
+        <v>240</v>
+      </c>
+      <c r="W15" s="5">
+        <f t="shared" si="0"/>
+        <v>512</v>
+      </c>
+      <c r="X15" s="5">
+        <f t="shared" si="7"/>
+        <v>4096</v>
+      </c>
+      <c r="Y15" s="5">
+        <f t="shared" si="1"/>
+        <v>1920</v>
+      </c>
+      <c r="Z15" s="5">
+        <f t="shared" si="2"/>
+        <v>29.434848484848203</v>
+      </c>
+      <c r="AA15" s="5">
+        <f t="shared" si="3"/>
+        <v>0.56515151515179696</v>
+      </c>
+      <c r="AB15" s="5">
+        <f t="shared" si="4"/>
+        <v>0.31939623507837178</v>
+      </c>
+    </row>
+    <row r="16" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C16" s="2">
         <v>10</v>
       </c>
@@ -1501,19 +1975,252 @@
       <c r="E16">
         <v>35</v>
       </c>
+      <c r="S16" s="5">
+        <v>9</v>
+      </c>
+      <c r="T16" s="5">
+        <v>32</v>
+      </c>
+      <c r="U16" s="5">
+        <f t="shared" si="5"/>
+        <v>81</v>
+      </c>
+      <c r="V16" s="5">
+        <f t="shared" si="6"/>
+        <v>288</v>
+      </c>
+      <c r="W16" s="5">
+        <f t="shared" si="0"/>
+        <v>729</v>
+      </c>
+      <c r="X16" s="5">
+        <f t="shared" si="7"/>
+        <v>6561</v>
+      </c>
+      <c r="Y16" s="5">
+        <f t="shared" si="1"/>
+        <v>2592</v>
+      </c>
+      <c r="Z16" s="5">
+        <f t="shared" si="2"/>
+        <v>32.154545454545101</v>
+      </c>
+      <c r="AA16" s="5">
+        <f t="shared" si="3"/>
+        <v>-0.15454545454510082</v>
+      </c>
+      <c r="AB16" s="5">
+        <f t="shared" si="4"/>
+        <v>2.3884297520551826E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="19:28" x14ac:dyDescent="0.25">
+      <c r="S17" s="5">
+        <v>10</v>
+      </c>
+      <c r="T17" s="5">
+        <v>35</v>
+      </c>
+      <c r="U17" s="5">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="V17" s="5">
+        <f t="shared" si="6"/>
+        <v>350</v>
+      </c>
+      <c r="W17" s="5">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="X17" s="5">
+        <f t="shared" si="7"/>
+        <v>10000</v>
+      </c>
+      <c r="Y17" s="5">
+        <f t="shared" si="1"/>
+        <v>3500</v>
+      </c>
+      <c r="Z17" s="5">
+        <f t="shared" si="2"/>
+        <v>34.881818181817749</v>
+      </c>
+      <c r="AA17" s="5">
+        <f t="shared" si="3"/>
+        <v>0.11818181818225071</v>
+      </c>
+      <c r="AB17" s="5">
+        <f t="shared" si="4"/>
+        <v>1.3966942148862564E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="19:28" x14ac:dyDescent="0.25">
+      <c r="S18" s="6">
+        <f>SUM(S8:S17)</f>
+        <v>55</v>
+      </c>
+      <c r="T18" s="6">
+        <f t="shared" ref="T18:V18" si="8">SUM(T8:T17)</f>
+        <v>227</v>
+      </c>
+      <c r="U18" s="6">
+        <f t="shared" si="8"/>
+        <v>385</v>
+      </c>
+      <c r="V18" s="6">
+        <f t="shared" si="8"/>
+        <v>1471</v>
+      </c>
+      <c r="W18" s="6">
+        <f>SUM(W8:W17)</f>
+        <v>3025</v>
+      </c>
+      <c r="X18" s="6">
+        <f t="shared" ref="X18" si="9">SUM(X8:X17)</f>
+        <v>25333</v>
+      </c>
+      <c r="Y18" s="6">
+        <f t="shared" ref="Y18" si="10">SUM(Y8:Y17)</f>
+        <v>11189</v>
+      </c>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5">
+        <f>SUM(AB8:AB17)</f>
+        <v>2.0166666666666666</v>
+      </c>
+    </row>
+    <row r="24" spans="19:28" x14ac:dyDescent="0.25">
+      <c r="S24" s="2"/>
+      <c r="T24" s="9">
+        <f>X18</f>
+        <v>25333</v>
+      </c>
+      <c r="U24" s="9">
+        <f>W18</f>
+        <v>3025</v>
+      </c>
+      <c r="V24" s="9">
+        <f>U18</f>
+        <v>385</v>
+      </c>
+      <c r="W24" s="7"/>
+      <c r="X24" s="5">
+        <f>Y18</f>
+        <v>11189</v>
+      </c>
+    </row>
+    <row r="25" spans="19:28" x14ac:dyDescent="0.25">
+      <c r="T25" s="9">
+        <f>W18</f>
+        <v>3025</v>
+      </c>
+      <c r="U25" s="9">
+        <f>U18</f>
+        <v>385</v>
+      </c>
+      <c r="V25" s="9">
+        <f>S18</f>
+        <v>55</v>
+      </c>
+      <c r="W25" s="7"/>
+      <c r="X25" s="10">
+        <f>V18</f>
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="26" spans="19:28" x14ac:dyDescent="0.25">
+      <c r="T26" s="9">
+        <f>U18</f>
+        <v>385</v>
+      </c>
+      <c r="U26" s="9">
+        <f>S18</f>
+        <v>55</v>
+      </c>
+      <c r="V26" s="9">
+        <v>10</v>
+      </c>
+      <c r="X26" s="5">
+        <f>T18</f>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="29" spans="19:28" x14ac:dyDescent="0.25">
+      <c r="T29" s="5">
+        <f t="array" ref="T29:V31">MINVERSE(T24:V26)</f>
+        <v>1.8939393939394042E-3</v>
+      </c>
+      <c r="U29" s="5">
+        <v>-2.0833333333333457E-2</v>
+      </c>
+      <c r="V29" s="5">
+        <v>4.1666666666666956E-2</v>
+      </c>
+      <c r="W29" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="X29" s="5">
+        <f t="array" ref="X29:X31">MMULT(T29:V31,X24:X26)</f>
+        <v>3.7878787878753428E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="19:28" x14ac:dyDescent="0.25">
+      <c r="T30" s="5">
+        <v>-2.0833333333333454E-2</v>
+      </c>
+      <c r="U30" s="5">
+        <v>0.24128787878788022</v>
+      </c>
+      <c r="V30" s="5">
+        <v>-0.52500000000000335</v>
+      </c>
+      <c r="W30" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="X30" s="5">
+        <v>2.655303030303017</v>
+      </c>
+    </row>
+    <row r="31" spans="19:28" x14ac:dyDescent="0.25">
+      <c r="T31" s="5">
+        <v>4.1666666666666942E-2</v>
+      </c>
+      <c r="U31" s="5">
+        <v>-0.52500000000000324</v>
+      </c>
+      <c r="V31" s="5">
+        <v>1.3833333333333409</v>
+      </c>
+      <c r="W31" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="X31" s="5">
+        <v>7.9500000000000455</v>
+      </c>
+    </row>
+    <row r="33" spans="23:24" x14ac:dyDescent="0.25">
+      <c r="W33" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="X33">
+        <f>AB18</f>
+        <v>2.0166666666666666</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E2:L17"/>
+  <dimension ref="E2:Z29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V29" sqref="V29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V36" sqref="V36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1521,7 +2228,7 @@
     <col min="6" max="6" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="5:26" x14ac:dyDescent="0.25">
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1532,7 +2239,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="5:26" x14ac:dyDescent="0.25">
       <c r="E3" s="2">
         <v>1</v>
       </c>
@@ -1543,7 +2250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="5:26" x14ac:dyDescent="0.25">
       <c r="E4" s="2">
         <v>2</v>
       </c>
@@ -1554,7 +2261,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="5:26" x14ac:dyDescent="0.25">
       <c r="E5" s="2">
         <v>3</v>
       </c>
@@ -1565,7 +2272,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="5:26" x14ac:dyDescent="0.25">
       <c r="E6" s="2">
         <v>4</v>
       </c>
@@ -1575,8 +2282,38 @@
       <c r="G6" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="Q6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="X6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z6" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="5:26" x14ac:dyDescent="0.25">
       <c r="E7" s="2">
         <v>5</v>
       </c>
@@ -1586,8 +2323,46 @@
       <c r="G7" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="Q7" s="5">
+        <v>1</v>
+      </c>
+      <c r="R7" s="5">
+        <v>2</v>
+      </c>
+      <c r="S7" s="5">
+        <f>Q7*Q7</f>
+        <v>1</v>
+      </c>
+      <c r="T7" s="5">
+        <f>Q7*R7</f>
+        <v>2</v>
+      </c>
+      <c r="U7" s="5">
+        <f>S7*Q7</f>
+        <v>1</v>
+      </c>
+      <c r="V7" s="5">
+        <f>U7*Q7</f>
+        <v>1</v>
+      </c>
+      <c r="W7" s="5">
+        <f>S7*R7</f>
+        <v>2</v>
+      </c>
+      <c r="X7" s="5">
+        <f>$U$25*S7+$U$26*Q7+$U$27</f>
+        <v>1.7181818181818551</v>
+      </c>
+      <c r="Y7" s="5">
+        <f>R7-X7</f>
+        <v>0.28181818181814489</v>
+      </c>
+      <c r="Z7" s="5">
+        <f>Y7*Y7</f>
+        <v>7.9421487603284963E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="5:26" x14ac:dyDescent="0.25">
       <c r="E8" s="2">
         <v>6</v>
       </c>
@@ -1597,8 +2372,46 @@
       <c r="G8" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="Q8" s="5">
+        <v>2</v>
+      </c>
+      <c r="R8" s="5">
+        <v>4</v>
+      </c>
+      <c r="S8" s="5">
+        <f t="shared" ref="S8:S16" si="0">Q8*Q8</f>
+        <v>4</v>
+      </c>
+      <c r="T8" s="5">
+        <f t="shared" ref="T8:T16" si="1">Q8*R8</f>
+        <v>8</v>
+      </c>
+      <c r="U8" s="5">
+        <f t="shared" ref="U8:U16" si="2">S8*Q8</f>
+        <v>8</v>
+      </c>
+      <c r="V8" s="5">
+        <f t="shared" ref="V8:V16" si="3">U8*Q8</f>
+        <v>16</v>
+      </c>
+      <c r="W8" s="5">
+        <f t="shared" ref="W8:W16" si="4">S8*R8</f>
+        <v>16</v>
+      </c>
+      <c r="X8" s="5">
+        <f t="shared" ref="X8:X16" si="5">$U$25*S8+$U$26*Q8+$U$27</f>
+        <v>4.2939393939394144</v>
+      </c>
+      <c r="Y8" s="5">
+        <f t="shared" ref="Y8:Y16" si="6">R8-X8</f>
+        <v>-0.29393939393941437</v>
+      </c>
+      <c r="Z8" s="5">
+        <f t="shared" ref="Z8:Z16" si="7">Y8*Y8</f>
+        <v>8.6400367309470233E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="5:26" x14ac:dyDescent="0.25">
       <c r="E9" s="2">
         <v>7</v>
       </c>
@@ -1608,8 +2421,46 @@
       <c r="G9" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="Q9" s="5">
+        <v>3</v>
+      </c>
+      <c r="R9" s="5">
+        <v>7</v>
+      </c>
+      <c r="S9" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="T9" s="5">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="U9" s="5">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="V9" s="5">
+        <f t="shared" si="3"/>
+        <v>81</v>
+      </c>
+      <c r="W9" s="5">
+        <f t="shared" si="4"/>
+        <v>63</v>
+      </c>
+      <c r="X9" s="5">
+        <f t="shared" si="5"/>
+        <v>7.0439393939393975</v>
+      </c>
+      <c r="Y9" s="5">
+        <f t="shared" si="6"/>
+        <v>-4.3939393939397497E-2</v>
+      </c>
+      <c r="Z9" s="5">
+        <f t="shared" si="7"/>
+        <v>1.9306703397615615E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="5:26" x14ac:dyDescent="0.25">
       <c r="E10" s="2">
         <v>8</v>
       </c>
@@ -1619,8 +2470,46 @@
       <c r="G10" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="Q10" s="5">
+        <v>4</v>
+      </c>
+      <c r="R10" s="5">
+        <v>10</v>
+      </c>
+      <c r="S10" s="5">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="T10" s="5">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="U10" s="5">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="V10" s="5">
+        <f t="shared" si="3"/>
+        <v>256</v>
+      </c>
+      <c r="W10" s="5">
+        <f t="shared" si="4"/>
+        <v>160</v>
+      </c>
+      <c r="X10" s="5">
+        <f t="shared" si="5"/>
+        <v>9.9681818181818045</v>
+      </c>
+      <c r="Y10" s="5">
+        <f t="shared" si="6"/>
+        <v>3.1818181818195512E-2</v>
+      </c>
+      <c r="Z10" s="5">
+        <f t="shared" si="7"/>
+        <v>1.0123966942157474E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="5:26" x14ac:dyDescent="0.25">
       <c r="E11" s="2">
         <v>9</v>
       </c>
@@ -1630,8 +2519,46 @@
       <c r="G11" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="Q11" s="5">
+        <v>5</v>
+      </c>
+      <c r="R11" s="5">
+        <v>13</v>
+      </c>
+      <c r="S11" s="5">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="T11" s="5">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="U11" s="5">
+        <f t="shared" si="2"/>
+        <v>125</v>
+      </c>
+      <c r="V11" s="5">
+        <f t="shared" si="3"/>
+        <v>625</v>
+      </c>
+      <c r="W11" s="5">
+        <f t="shared" si="4"/>
+        <v>325</v>
+      </c>
+      <c r="X11" s="5">
+        <f t="shared" si="5"/>
+        <v>13.066666666666634</v>
+      </c>
+      <c r="Y11" s="5">
+        <f t="shared" si="6"/>
+        <v>-6.6666666666634455E-2</v>
+      </c>
+      <c r="Z11" s="5">
+        <f t="shared" si="7"/>
+        <v>4.4444444444401493E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="5:26" x14ac:dyDescent="0.25">
       <c r="E12" s="2">
         <v>10</v>
       </c>
@@ -1641,10 +2568,357 @@
       <c r="G12" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="12:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="Q12" s="5">
+        <v>6</v>
+      </c>
+      <c r="R12" s="5">
+        <v>16</v>
+      </c>
+      <c r="S12" s="5">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="T12" s="5">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="U12" s="5">
+        <f t="shared" si="2"/>
+        <v>216</v>
+      </c>
+      <c r="V12" s="5">
+        <f t="shared" si="3"/>
+        <v>1296</v>
+      </c>
+      <c r="W12" s="5">
+        <f t="shared" si="4"/>
+        <v>576</v>
+      </c>
+      <c r="X12" s="5">
+        <f t="shared" si="5"/>
+        <v>16.33939393939389</v>
+      </c>
+      <c r="Y12" s="5">
+        <f t="shared" si="6"/>
+        <v>-0.33939393939389007</v>
+      </c>
+      <c r="Z12" s="5">
+        <f t="shared" si="7"/>
+        <v>0.11518824609730352</v>
+      </c>
+    </row>
+    <row r="13" spans="5:26" x14ac:dyDescent="0.25">
+      <c r="Q13" s="5">
+        <v>7</v>
+      </c>
+      <c r="R13" s="5">
+        <v>20</v>
+      </c>
+      <c r="S13" s="5">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="T13" s="5">
+        <f t="shared" si="1"/>
+        <v>140</v>
+      </c>
+      <c r="U13" s="5">
+        <f t="shared" si="2"/>
+        <v>343</v>
+      </c>
+      <c r="V13" s="5">
+        <f t="shared" si="3"/>
+        <v>2401</v>
+      </c>
+      <c r="W13" s="5">
+        <f t="shared" si="4"/>
+        <v>980</v>
+      </c>
+      <c r="X13" s="5">
+        <f t="shared" si="5"/>
+        <v>19.786363636363568</v>
+      </c>
+      <c r="Y13" s="5">
+        <f t="shared" si="6"/>
+        <v>0.21363636363643224</v>
+      </c>
+      <c r="Z13" s="5">
+        <f t="shared" si="7"/>
+        <v>4.5640495867797906E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="5:26" x14ac:dyDescent="0.25">
+      <c r="Q14" s="5">
+        <v>8</v>
+      </c>
+      <c r="R14" s="5">
+        <v>24</v>
+      </c>
+      <c r="S14" s="5">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="T14" s="5">
+        <f t="shared" si="1"/>
+        <v>192</v>
+      </c>
+      <c r="U14" s="5">
+        <f t="shared" si="2"/>
+        <v>512</v>
+      </c>
+      <c r="V14" s="5">
+        <f t="shared" si="3"/>
+        <v>4096</v>
+      </c>
+      <c r="W14" s="5">
+        <f t="shared" si="4"/>
+        <v>1536</v>
+      </c>
+      <c r="X14" s="5">
+        <f t="shared" si="5"/>
+        <v>23.407575757575671</v>
+      </c>
+      <c r="Y14" s="5">
+        <f t="shared" si="6"/>
+        <v>0.5924242424243289</v>
+      </c>
+      <c r="Z14" s="5">
+        <f t="shared" si="7"/>
+        <v>0.35096648301204003</v>
+      </c>
+    </row>
+    <row r="15" spans="5:26" x14ac:dyDescent="0.25">
+      <c r="Q15" s="5">
+        <v>9</v>
+      </c>
+      <c r="R15" s="5">
+        <v>27</v>
+      </c>
+      <c r="S15" s="5">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="T15" s="5">
+        <f t="shared" si="1"/>
+        <v>243</v>
+      </c>
+      <c r="U15" s="5">
+        <f t="shared" si="2"/>
+        <v>729</v>
+      </c>
+      <c r="V15" s="5">
+        <f t="shared" si="3"/>
+        <v>6561</v>
+      </c>
+      <c r="W15" s="5">
+        <f t="shared" si="4"/>
+        <v>2187</v>
+      </c>
+      <c r="X15" s="5">
+        <f t="shared" si="5"/>
+        <v>27.203030303030197</v>
+      </c>
+      <c r="Y15" s="5">
+        <f t="shared" si="6"/>
+        <v>-0.20303030303019654</v>
+      </c>
+      <c r="Z15" s="5">
+        <f t="shared" si="7"/>
+        <v>4.1221303948533433E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="5:26" x14ac:dyDescent="0.25">
+      <c r="Q16" s="5">
+        <v>10</v>
+      </c>
+      <c r="R16" s="5">
+        <v>31</v>
+      </c>
+      <c r="S16" s="5">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="T16" s="5">
+        <f t="shared" si="1"/>
+        <v>310</v>
+      </c>
+      <c r="U16" s="5">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+      <c r="V16" s="5">
+        <f t="shared" si="3"/>
+        <v>10000</v>
+      </c>
+      <c r="W16" s="5">
+        <f t="shared" si="4"/>
+        <v>3100</v>
+      </c>
+      <c r="X16" s="5">
+        <f t="shared" si="5"/>
+        <v>31.172727272727148</v>
+      </c>
+      <c r="Y16" s="5">
+        <f t="shared" si="6"/>
+        <v>-0.17272727272714761</v>
+      </c>
+      <c r="Z16" s="5">
+        <f t="shared" si="7"/>
+        <v>2.983471074375843E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="12:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L17" s="3" t="s">
         <v>6</v>
+      </c>
+      <c r="Q17" s="6">
+        <f>SUM(Q7:Q16)</f>
+        <v>55</v>
+      </c>
+      <c r="R17" s="6">
+        <f t="shared" ref="R17:W17" si="8">SUM(R7:R16)</f>
+        <v>154</v>
+      </c>
+      <c r="S17" s="6">
+        <f t="shared" si="8"/>
+        <v>385</v>
+      </c>
+      <c r="T17" s="6">
+        <f t="shared" si="8"/>
+        <v>1117</v>
+      </c>
+      <c r="U17" s="6">
+        <f t="shared" si="8"/>
+        <v>3025</v>
+      </c>
+      <c r="V17" s="6">
+        <f t="shared" si="8"/>
+        <v>25333</v>
+      </c>
+      <c r="W17" s="6">
+        <f t="shared" si="8"/>
+        <v>8945</v>
+      </c>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5">
+        <f>SUM(Z7:Z16)</f>
+        <v>0.75606060606060588</v>
+      </c>
+    </row>
+    <row r="21" spans="12:26" x14ac:dyDescent="0.25">
+      <c r="Q21">
+        <f>V17</f>
+        <v>25333</v>
+      </c>
+      <c r="R21">
+        <f>U17</f>
+        <v>3025</v>
+      </c>
+      <c r="S21">
+        <f>S17</f>
+        <v>385</v>
+      </c>
+      <c r="U21">
+        <f>W17</f>
+        <v>8945</v>
+      </c>
+    </row>
+    <row r="22" spans="12:26" x14ac:dyDescent="0.25">
+      <c r="Q22">
+        <f>U17</f>
+        <v>3025</v>
+      </c>
+      <c r="R22">
+        <f>S17</f>
+        <v>385</v>
+      </c>
+      <c r="S22">
+        <f>Q17</f>
+        <v>55</v>
+      </c>
+      <c r="U22">
+        <f>T17</f>
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="23" spans="12:26" x14ac:dyDescent="0.25">
+      <c r="Q23">
+        <f>S17</f>
+        <v>385</v>
+      </c>
+      <c r="R23">
+        <f>Q17</f>
+        <v>55</v>
+      </c>
+      <c r="S23">
+        <v>10</v>
+      </c>
+      <c r="U23">
+        <f>R17</f>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="12:26" x14ac:dyDescent="0.25">
+      <c r="Q25">
+        <f t="array" ref="Q25:S27">MINVERSE(Q21:S23)</f>
+        <v>1.8939393939394042E-3</v>
+      </c>
+      <c r="R25">
+        <v>-2.0833333333333457E-2</v>
+      </c>
+      <c r="S25">
+        <v>4.1666666666666956E-2</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="U25">
+        <f t="array" ref="U25:U27">MMULT(Q25:S27,U21:U23)</f>
+        <v>8.7121212121211933E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="12:26" x14ac:dyDescent="0.25">
+      <c r="Q26">
+        <v>-2.0833333333333454E-2</v>
+      </c>
+      <c r="R26">
+        <v>0.24128787878788022</v>
+      </c>
+      <c r="S26">
+        <v>-0.52500000000000335</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U26">
+        <v>2.3143939393939235</v>
+      </c>
+    </row>
+    <row r="27" spans="12:26" x14ac:dyDescent="0.25">
+      <c r="Q27">
+        <v>4.1666666666666942E-2</v>
+      </c>
+      <c r="R27">
+        <v>-0.52500000000000324</v>
+      </c>
+      <c r="S27">
+        <v>1.3833333333333409</v>
+      </c>
+      <c r="T27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U27">
+        <v>-0.68333333333328028</v>
+      </c>
+    </row>
+    <row r="29" spans="12:26" x14ac:dyDescent="0.25">
+      <c r="U29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="V29">
+        <f>Z17</f>
+        <v>0.75606060606060588</v>
       </c>
     </row>
   </sheetData>

--- a/Эксперименты.xlsx
+++ b/Эксперименты.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>List</t>
   </si>
@@ -84,17 +84,52 @@
   <si>
     <t>S =</t>
   </si>
+  <si>
+    <t>ln(y)</t>
+  </si>
+  <si>
+    <t>ln(y)*x</t>
+  </si>
+  <si>
+    <t>Дисперсия</t>
+  </si>
+  <si>
+    <t>Ст.отклон.Г</t>
+  </si>
+  <si>
+    <t>Коэф.вар.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ln(a) = </t>
+  </si>
+  <si>
+    <t>Дисперсия(list)</t>
+  </si>
+  <si>
+    <t>Дисперсия(vector)</t>
+  </si>
+  <si>
+    <t>A =</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -104,6 +139,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -139,10 +181,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -157,7 +200,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -173,9 +216,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Процентный" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -354,8 +409,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.8961067366579178E-2"/>
-                  <c:y val="-5.5516550014581507E-2"/>
+                  <c:x val="1.8961067366579182E-2"/>
+                  <c:y val="-5.5516550014581514E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -451,11 +506,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="107305216"/>
-        <c:axId val="107311104"/>
+        <c:axId val="126906368"/>
+        <c:axId val="126907904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="107305216"/>
+        <c:axId val="126906368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -465,7 +520,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107311104"/>
+        <c:crossAx val="126907904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -473,7 +528,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="107311104"/>
+        <c:axId val="126907904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -484,14 +539,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107305216"/>
+        <c:crossAx val="126906368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -500,7 +554,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -567,7 +621,7 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.3870953630796149E-2"/>
+                  <c:x val="-4.3870953630796156E-2"/>
                   <c:y val="-4.6601414406532517E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -674,11 +728,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="107340544"/>
-        <c:axId val="107342080"/>
+        <c:axId val="128272640"/>
+        <c:axId val="128282624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="107340544"/>
+        <c:axId val="128272640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -688,7 +742,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107342080"/>
+        <c:crossAx val="128282624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -696,7 +750,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="107342080"/>
+        <c:axId val="128282624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -707,7 +761,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107340544"/>
+        <c:crossAx val="128272640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -723,7 +777,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -786,21 +840,25 @@
             <c:spPr>
               <a:ln w="12700"/>
             </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:trendlineType val="exp"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.3584208223972003E-2"/>
+                  <c:y val="6.1654515407796248E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'3 эксперимент'!$F$3:$F$12</c:f>
+              <c:f>'3 эксперимент'!$F$3:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -830,16 +888,22 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3 эксперимент'!$G$3:$G$12</c:f>
+              <c:f>'3 эксперимент'!$G$3:$G$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -847,13 +911,13 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>16</c:v>
@@ -862,13 +926,19 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>31</c:v>
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -885,11 +955,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="107736448"/>
-        <c:axId val="108676224"/>
+        <c:axId val="128345216"/>
+        <c:axId val="128346752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="107736448"/>
+        <c:axId val="128345216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -899,7 +969,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108676224"/>
+        <c:crossAx val="128346752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -907,7 +977,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108676224"/>
+        <c:axId val="128346752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -918,7 +988,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107736448"/>
+        <c:crossAx val="128345216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -934,7 +1004,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -979,16 +1049,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>495299</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1014,16 +1084,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1332,15 +1402,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B7:E17"/>
+  <dimension ref="B7:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
@@ -1483,7 +1556,7 @@
         <v>5195</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>10</v>
       </c>
@@ -1495,6 +1568,24 @@
       </c>
       <c r="E17" s="1">
         <v>5912</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25">
+        <f>_xlfn.VAR.P(D8:D17)</f>
+        <v>115448178.84</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26">
+        <f>_xlfn.VAR.P(E8:E17)</f>
+        <v>2727819.6</v>
       </c>
     </row>
   </sheetData>
@@ -1505,15 +1596,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:AB33"/>
+  <dimension ref="C4:AB41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="X34" sqref="X34"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="T45" sqref="T45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:28" x14ac:dyDescent="0.25">
@@ -1659,15 +1751,15 @@
         <v>56</v>
       </c>
       <c r="Z9" s="5">
-        <f t="shared" ref="Z9:Z18" si="2">$X$29*U9+$X$30*S9+$X$31</f>
+        <f t="shared" ref="Z9:Z17" si="2">$X$29*U9+$X$30*S9+$X$31</f>
         <v>13.275757575757581</v>
       </c>
       <c r="AA9" s="5">
-        <f t="shared" ref="AA9:AA18" si="3">T9-Z9</f>
+        <f t="shared" ref="AA9:AA17" si="3">T9-Z9</f>
         <v>0.72424242424241925</v>
       </c>
       <c r="AB9" s="5">
-        <f t="shared" ref="AB9:AB18" si="4">AA9*AA9</f>
+        <f t="shared" ref="AB9:AB17" si="4">AA9*AA9</f>
         <v>0.52452708907253642</v>
       </c>
     </row>
@@ -2014,7 +2106,7 @@
         <v>2.3884297520551826E-2</v>
       </c>
     </row>
-    <row r="17" spans="19:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:28" x14ac:dyDescent="0.25">
       <c r="S17" s="5">
         <v>10</v>
       </c>
@@ -2054,7 +2146,7 @@
         <v>1.3966942148862564E-2</v>
       </c>
     </row>
-    <row r="18" spans="19:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:28" x14ac:dyDescent="0.25">
       <c r="S18" s="6">
         <f>SUM(S8:S17)</f>
         <v>55</v>
@@ -2090,7 +2182,7 @@
         <v>2.0166666666666666</v>
       </c>
     </row>
-    <row r="24" spans="19:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:28" x14ac:dyDescent="0.25">
       <c r="S24" s="2"/>
       <c r="T24" s="9">
         <f>X18</f>
@@ -2110,7 +2202,7 @@
         <v>11189</v>
       </c>
     </row>
-    <row r="25" spans="19:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:28" x14ac:dyDescent="0.25">
       <c r="T25" s="9">
         <f>W18</f>
         <v>3025</v>
@@ -2129,7 +2221,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="26" spans="19:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:28" x14ac:dyDescent="0.25">
       <c r="T26" s="9">
         <f>U18</f>
         <v>385</v>
@@ -2146,7 +2238,32 @@
         <v>227</v>
       </c>
     </row>
-    <row r="29" spans="19:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27">
+        <f>_xlfn.VAR.P(T8:T17)</f>
+        <v>60.21</v>
+      </c>
+    </row>
+    <row r="28" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28">
+        <f>_xlfn.STDEV.P(T8:T17)</f>
+        <v>7.7595102938265379</v>
+      </c>
+    </row>
+    <row r="29" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="12">
+        <f>F28/AVERAGE(T8:T17)</f>
+        <v>0.34182864730513385</v>
+      </c>
       <c r="T29" s="5">
         <f t="array" ref="T29:V31">MINVERSE(T24:V26)</f>
         <v>1.8939393939394042E-3</v>
@@ -2165,7 +2282,7 @@
         <v>3.7878787878753428E-3</v>
       </c>
     </row>
-    <row r="30" spans="19:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:28" x14ac:dyDescent="0.25">
       <c r="T30" s="5">
         <v>-2.0833333333333454E-2</v>
       </c>
@@ -2182,7 +2299,7 @@
         <v>2.655303030303017</v>
       </c>
     </row>
-    <row r="31" spans="19:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:28" x14ac:dyDescent="0.25">
       <c r="T31" s="5">
         <v>4.1666666666666942E-2</v>
       </c>
@@ -2199,13 +2316,77 @@
         <v>7.9500000000000455</v>
       </c>
     </row>
-    <row r="33" spans="23:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="7:24" x14ac:dyDescent="0.25">
       <c r="W33" s="11" t="s">
         <v>21</v>
       </c>
       <c r="X33">
         <f>AB18</f>
         <v>2.0166666666666666</v>
+      </c>
+    </row>
+    <row r="40" spans="7:24" x14ac:dyDescent="0.25">
+      <c r="G40" s="5">
+        <v>1</v>
+      </c>
+      <c r="H40" s="5">
+        <v>2</v>
+      </c>
+      <c r="I40" s="5">
+        <v>3</v>
+      </c>
+      <c r="J40" s="5">
+        <v>4</v>
+      </c>
+      <c r="K40" s="5">
+        <v>5</v>
+      </c>
+      <c r="L40" s="5">
+        <v>6</v>
+      </c>
+      <c r="M40" s="5">
+        <v>7</v>
+      </c>
+      <c r="N40" s="5">
+        <v>8</v>
+      </c>
+      <c r="O40" s="5">
+        <v>9</v>
+      </c>
+      <c r="P40" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="7:24" x14ac:dyDescent="0.25">
+      <c r="G41" s="5">
+        <v>10</v>
+      </c>
+      <c r="H41" s="5">
+        <v>14</v>
+      </c>
+      <c r="I41" s="5">
+        <v>16</v>
+      </c>
+      <c r="J41" s="5">
+        <v>19</v>
+      </c>
+      <c r="K41" s="5">
+        <v>21</v>
+      </c>
+      <c r="L41" s="5">
+        <v>24</v>
+      </c>
+      <c r="M41" s="5">
+        <v>26</v>
+      </c>
+      <c r="N41" s="5">
+        <v>30</v>
+      </c>
+      <c r="O41" s="5">
+        <v>32</v>
+      </c>
+      <c r="P41" s="5">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2217,15 +2398,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E2:Z29"/>
+  <dimension ref="E2:Z64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V36" sqref="V36"/>
+    <sheetView topLeftCell="C46" workbookViewId="0">
+      <selection activeCell="U68" sqref="U67:U68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="16" max="19" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="5:26" x14ac:dyDescent="0.25">
@@ -2269,7 +2451,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="5:26" x14ac:dyDescent="0.25">
@@ -2280,38 +2462,34 @@
         <v>4</v>
       </c>
       <c r="G6" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q6" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="R6" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="S6" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="T6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="Q6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="W6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="X6" s="8" t="s">
+      <c r="U6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="V6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="Y6" s="8" t="s">
+      <c r="W6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="Z6" s="8" t="s">
+      <c r="X6" s="16" t="s">
         <v>20</v>
       </c>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="16"/>
     </row>
     <row r="7" spans="5:26" x14ac:dyDescent="0.25">
       <c r="E7" s="2">
@@ -2321,46 +2499,40 @@
         <v>5</v>
       </c>
       <c r="G7" s="1">
-        <v>13</v>
-      </c>
-      <c r="Q7" s="5">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="13">
         <v>1</v>
       </c>
-      <c r="R7" s="5">
+      <c r="R7" s="13">
         <v>2</v>
       </c>
-      <c r="S7" s="5">
+      <c r="S7" s="13">
+        <f>LN(R7)</f>
+        <v>0.69314718055994529</v>
+      </c>
+      <c r="T7" s="13">
         <f>Q7*Q7</f>
         <v>1</v>
       </c>
-      <c r="T7" s="5">
-        <f>Q7*R7</f>
-        <v>2</v>
-      </c>
-      <c r="U7" s="5">
-        <f>S7*Q7</f>
-        <v>1</v>
-      </c>
-      <c r="V7" s="5">
-        <f>U7*Q7</f>
-        <v>1</v>
-      </c>
-      <c r="W7" s="5">
-        <f>S7*R7</f>
-        <v>2</v>
-      </c>
-      <c r="X7" s="5">
-        <f>$U$25*S7+$U$26*Q7+$U$27</f>
-        <v>1.7181818181818551</v>
-      </c>
-      <c r="Y7" s="5">
-        <f>R7-X7</f>
-        <v>0.28181818181814489</v>
-      </c>
-      <c r="Z7" s="5">
-        <f>Y7*Y7</f>
-        <v>7.9421487603284963E-2</v>
-      </c>
+      <c r="U7" s="13">
+        <f>Q7*S7</f>
+        <v>0.69314718055994529</v>
+      </c>
+      <c r="V7" s="13">
+        <f>$S$32*POWER(2.72,$R$29*Q7)</f>
+        <v>2.3743200996651139</v>
+      </c>
+      <c r="W7" s="13">
+        <f>R7-V7</f>
+        <v>-0.37432009966511393</v>
+      </c>
+      <c r="X7" s="13">
+        <f>W7*W7</f>
+        <v>0.14011553701330082</v>
+      </c>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
     </row>
     <row r="8" spans="5:26" x14ac:dyDescent="0.25">
       <c r="E8" s="2">
@@ -2372,44 +2544,38 @@
       <c r="G8" s="1">
         <v>16</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="Q8" s="13">
         <v>2</v>
       </c>
-      <c r="R8" s="5">
+      <c r="R8" s="13">
         <v>4</v>
       </c>
-      <c r="S8" s="5">
-        <f t="shared" ref="S8:S16" si="0">Q8*Q8</f>
+      <c r="S8" s="13">
+        <f t="shared" ref="S8:S18" si="0">LN(R8)</f>
+        <v>1.3862943611198906</v>
+      </c>
+      <c r="T8" s="13">
+        <f t="shared" ref="T8:T18" si="1">Q8*Q8</f>
         <v>4</v>
       </c>
-      <c r="T8" s="5">
-        <f t="shared" ref="T8:T16" si="1">Q8*R8</f>
-        <v>8</v>
-      </c>
-      <c r="U8" s="5">
-        <f t="shared" ref="U8:U16" si="2">S8*Q8</f>
-        <v>8</v>
-      </c>
-      <c r="V8" s="5">
-        <f t="shared" ref="V8:V16" si="3">U8*Q8</f>
-        <v>16</v>
-      </c>
-      <c r="W8" s="5">
-        <f t="shared" ref="W8:W16" si="4">S8*R8</f>
-        <v>16</v>
-      </c>
-      <c r="X8" s="5">
-        <f t="shared" ref="X8:X16" si="5">$U$25*S8+$U$26*Q8+$U$27</f>
-        <v>4.2939393939394144</v>
-      </c>
-      <c r="Y8" s="5">
-        <f t="shared" ref="Y8:Y16" si="6">R8-X8</f>
-        <v>-0.29393939393941437</v>
-      </c>
-      <c r="Z8" s="5">
-        <f t="shared" ref="Z8:Z16" si="7">Y8*Y8</f>
-        <v>8.6400367309470233E-2</v>
-      </c>
+      <c r="U8" s="13">
+        <f t="shared" ref="U8:U15" si="2">Q8*S8</f>
+        <v>2.7725887222397811</v>
+      </c>
+      <c r="V8" s="13">
+        <f t="shared" ref="V8:V18" si="3">$S$32*POWER(2.72,$R$29*Q8)</f>
+        <v>3.4777650349262461</v>
+      </c>
+      <c r="W8" s="13">
+        <f t="shared" ref="W8:W18" si="4">R8-V8</f>
+        <v>0.52223496507375389</v>
+      </c>
+      <c r="X8" s="13">
+        <f t="shared" ref="X8:X18" si="5">W8*W8</f>
+        <v>0.27272935874558496</v>
+      </c>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
     </row>
     <row r="9" spans="5:26" x14ac:dyDescent="0.25">
       <c r="E9" s="2">
@@ -2421,44 +2587,38 @@
       <c r="G9" s="1">
         <v>20</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="Q9" s="13">
         <v>3</v>
       </c>
-      <c r="R9" s="5">
-        <v>7</v>
-      </c>
-      <c r="S9" s="5">
+      <c r="R9" s="13">
+        <v>6</v>
+      </c>
+      <c r="S9" s="13">
         <f t="shared" si="0"/>
+        <v>1.791759469228055</v>
+      </c>
+      <c r="T9" s="13">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="T9" s="5">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="U9" s="5">
+      <c r="U9" s="13">
         <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-      <c r="V9" s="5">
+        <v>5.3752784076841653</v>
+      </c>
+      <c r="V9" s="13">
         <f t="shared" si="3"/>
-        <v>81</v>
-      </c>
-      <c r="W9" s="5">
+        <v>5.0940265551647697</v>
+      </c>
+      <c r="W9" s="13">
         <f t="shared" si="4"/>
-        <v>63</v>
-      </c>
-      <c r="X9" s="5">
+        <v>0.90597344483523035</v>
+      </c>
+      <c r="X9" s="13">
         <f t="shared" si="5"/>
-        <v>7.0439393939393975</v>
-      </c>
-      <c r="Y9" s="5">
-        <f t="shared" si="6"/>
-        <v>-4.3939393939397497E-2</v>
-      </c>
-      <c r="Z9" s="5">
-        <f t="shared" si="7"/>
-        <v>1.9306703397615615E-3</v>
-      </c>
+        <v>0.82078788274661418</v>
+      </c>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
     </row>
     <row r="10" spans="5:26" x14ac:dyDescent="0.25">
       <c r="E10" s="2">
@@ -2468,46 +2628,40 @@
         <v>8</v>
       </c>
       <c r="G10" s="1">
-        <v>24</v>
-      </c>
-      <c r="Q10" s="5">
+        <v>28</v>
+      </c>
+      <c r="Q10" s="13">
         <v>4</v>
       </c>
-      <c r="R10" s="5">
-        <v>10</v>
-      </c>
-      <c r="S10" s="5">
+      <c r="R10" s="13">
+        <v>8</v>
+      </c>
+      <c r="S10" s="13">
         <f t="shared" si="0"/>
+        <v>2.0794415416798357</v>
+      </c>
+      <c r="T10" s="13">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="T10" s="5">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="U10" s="5">
+      <c r="U10" s="13">
         <f t="shared" si="2"/>
-        <v>64</v>
-      </c>
-      <c r="V10" s="5">
+        <v>8.317766166719343</v>
+      </c>
+      <c r="V10" s="13">
         <f t="shared" si="3"/>
-        <v>256</v>
-      </c>
-      <c r="W10" s="5">
+        <v>7.4614317770533791</v>
+      </c>
+      <c r="W10" s="13">
         <f t="shared" si="4"/>
-        <v>160</v>
-      </c>
-      <c r="X10" s="5">
+        <v>0.53856822294662088</v>
+      </c>
+      <c r="X10" s="13">
         <f t="shared" si="5"/>
-        <v>9.9681818181818045</v>
-      </c>
-      <c r="Y10" s="5">
-        <f t="shared" si="6"/>
-        <v>3.1818181818195512E-2</v>
-      </c>
-      <c r="Z10" s="5">
-        <f t="shared" si="7"/>
-        <v>1.0123966942157474E-3</v>
-      </c>
+        <v>0.2900557307678811</v>
+      </c>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
     </row>
     <row r="11" spans="5:26" x14ac:dyDescent="0.25">
       <c r="E11" s="2">
@@ -2517,46 +2671,40 @@
         <v>9</v>
       </c>
       <c r="G11" s="1">
-        <v>27</v>
-      </c>
-      <c r="Q11" s="5">
+        <v>40</v>
+      </c>
+      <c r="Q11" s="13">
         <v>5</v>
       </c>
-      <c r="R11" s="5">
-        <v>13</v>
-      </c>
-      <c r="S11" s="5">
+      <c r="R11" s="13">
+        <v>12</v>
+      </c>
+      <c r="S11" s="13">
         <f t="shared" si="0"/>
+        <v>2.4849066497880004</v>
+      </c>
+      <c r="T11" s="13">
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="T11" s="5">
-        <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="U11" s="5">
+      <c r="U11" s="13">
         <f t="shared" si="2"/>
-        <v>125</v>
-      </c>
-      <c r="V11" s="5">
+        <v>12.424533248940001</v>
+      </c>
+      <c r="V11" s="13">
         <f t="shared" si="3"/>
-        <v>625</v>
-      </c>
-      <c r="W11" s="5">
+        <v>10.929068303967879</v>
+      </c>
+      <c r="W11" s="13">
         <f t="shared" si="4"/>
-        <v>325</v>
-      </c>
-      <c r="X11" s="5">
+        <v>1.0709316960321207</v>
+      </c>
+      <c r="X11" s="13">
         <f t="shared" si="5"/>
-        <v>13.066666666666634</v>
-      </c>
-      <c r="Y11" s="5">
-        <f t="shared" si="6"/>
-        <v>-6.6666666666634455E-2</v>
-      </c>
-      <c r="Z11" s="5">
-        <f t="shared" si="7"/>
-        <v>4.4444444444401493E-3</v>
-      </c>
+        <v>1.1468946975662346</v>
+      </c>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
     </row>
     <row r="12" spans="5:26" x14ac:dyDescent="0.25">
       <c r="E12" s="2">
@@ -2566,363 +2714,548 @@
         <v>10</v>
       </c>
       <c r="G12" s="1">
-        <v>31</v>
-      </c>
-      <c r="Q12" s="5">
+        <v>72</v>
+      </c>
+      <c r="Q12" s="13">
         <v>6</v>
       </c>
-      <c r="R12" s="5">
+      <c r="R12" s="13">
         <v>16</v>
       </c>
-      <c r="S12" s="5">
+      <c r="S12" s="13">
         <f t="shared" si="0"/>
+        <v>2.7725887222397811</v>
+      </c>
+      <c r="T12" s="13">
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="T12" s="5">
+      <c r="U12" s="13">
+        <f t="shared" si="2"/>
+        <v>16.635532333438686</v>
+      </c>
+      <c r="V12" s="13">
+        <f t="shared" si="3"/>
+        <v>16.008259213751813</v>
+      </c>
+      <c r="W12" s="13">
+        <f t="shared" si="4"/>
+        <v>-8.2592137518133768E-3</v>
+      </c>
+      <c r="X12" s="13">
+        <f t="shared" si="5"/>
+        <v>6.8214611798143201E-5</v>
+      </c>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+    </row>
+    <row r="13" spans="5:26" x14ac:dyDescent="0.25">
+      <c r="E13" s="2">
+        <v>11</v>
+      </c>
+      <c r="F13" s="1">
+        <v>11</v>
+      </c>
+      <c r="G13" s="1">
+        <v>115</v>
+      </c>
+      <c r="Q13" s="13">
+        <v>7</v>
+      </c>
+      <c r="R13" s="13">
+        <v>20</v>
+      </c>
+      <c r="S13" s="13">
+        <f t="shared" si="0"/>
+        <v>2.9957322735539909</v>
+      </c>
+      <c r="T13" s="13">
         <f t="shared" si="1"/>
-        <v>96</v>
-      </c>
-      <c r="U12" s="5">
+        <v>49</v>
+      </c>
+      <c r="U13" s="13">
         <f t="shared" si="2"/>
-        <v>216</v>
-      </c>
-      <c r="V12" s="5">
+        <v>20.970125914877936</v>
+      </c>
+      <c r="V13" s="13">
         <f t="shared" si="3"/>
-        <v>1296</v>
-      </c>
-      <c r="W12" s="5">
+        <v>23.44796060626971</v>
+      </c>
+      <c r="W13" s="13">
         <f t="shared" si="4"/>
-        <v>576</v>
-      </c>
-      <c r="X12" s="5">
+        <v>-3.4479606062697101</v>
+      </c>
+      <c r="X13" s="13">
         <f t="shared" si="5"/>
-        <v>16.33939393939389</v>
-      </c>
-      <c r="Y12" s="5">
-        <f t="shared" si="6"/>
-        <v>-0.33939393939389007</v>
-      </c>
-      <c r="Z12" s="5">
-        <f t="shared" si="7"/>
-        <v>0.11518824609730352</v>
-      </c>
-    </row>
-    <row r="13" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="Q13" s="5">
-        <v>7</v>
-      </c>
-      <c r="R13" s="5">
-        <v>20</v>
-      </c>
-      <c r="S13" s="5">
+        <v>11.888432342387787</v>
+      </c>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
+    </row>
+    <row r="14" spans="5:26" x14ac:dyDescent="0.25">
+      <c r="E14" s="2">
+        <v>12</v>
+      </c>
+      <c r="F14" s="1">
+        <v>12</v>
+      </c>
+      <c r="G14" s="1">
+        <v>200</v>
+      </c>
+      <c r="Q14" s="13">
+        <v>8</v>
+      </c>
+      <c r="R14" s="13">
+        <v>28</v>
+      </c>
+      <c r="S14" s="13">
         <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="T13" s="5">
+        <v>3.3322045101752038</v>
+      </c>
+      <c r="T14" s="13">
         <f t="shared" si="1"/>
-        <v>140</v>
-      </c>
-      <c r="U13" s="5">
+        <v>64</v>
+      </c>
+      <c r="U14" s="13">
         <f t="shared" si="2"/>
-        <v>343</v>
-      </c>
-      <c r="V13" s="5">
+        <v>26.65763608140163</v>
+      </c>
+      <c r="V14" s="13">
         <f t="shared" si="3"/>
-        <v>2401</v>
-      </c>
-      <c r="W13" s="5">
+        <v>34.345199515564289</v>
+      </c>
+      <c r="W14" s="13">
         <f t="shared" si="4"/>
-        <v>980</v>
-      </c>
-      <c r="X13" s="5">
+        <v>-6.3451995155642891</v>
+      </c>
+      <c r="X14" s="13">
         <f t="shared" si="5"/>
-        <v>19.786363636363568</v>
-      </c>
-      <c r="Y13" s="5">
-        <f t="shared" si="6"/>
-        <v>0.21363636363643224</v>
-      </c>
-      <c r="Z13" s="5">
-        <f t="shared" si="7"/>
-        <v>4.5640495867797906E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="Q14" s="5">
-        <v>8</v>
-      </c>
-      <c r="R14" s="5">
-        <v>24</v>
-      </c>
-      <c r="S14" s="5">
+        <v>40.261556892317287</v>
+      </c>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
+    </row>
+    <row r="15" spans="5:26" x14ac:dyDescent="0.25">
+      <c r="K15">
+        <f>_xlfn.VAR.P(R7:R18)</f>
+        <v>3243.2430555555557</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>9</v>
+      </c>
+      <c r="R15" s="13">
+        <v>40</v>
+      </c>
+      <c r="S15" s="13">
         <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="T14" s="5">
+        <v>3.6888794541139363</v>
+      </c>
+      <c r="T15" s="13">
         <f t="shared" si="1"/>
-        <v>192</v>
-      </c>
-      <c r="U14" s="5">
+        <v>81</v>
+      </c>
+      <c r="U15" s="13">
         <f t="shared" si="2"/>
-        <v>512</v>
-      </c>
-      <c r="V14" s="5">
+        <v>33.199915087025424</v>
+      </c>
+      <c r="V15" s="13">
         <f t="shared" si="3"/>
-        <v>4096</v>
-      </c>
-      <c r="W14" s="5">
+        <v>50.306836896020215</v>
+      </c>
+      <c r="W15" s="13">
         <f t="shared" si="4"/>
-        <v>1536</v>
-      </c>
-      <c r="X14" s="5">
+        <v>-10.306836896020215</v>
+      </c>
+      <c r="X15" s="13">
         <f t="shared" si="5"/>
-        <v>23.407575757575671</v>
-      </c>
-      <c r="Y14" s="5">
-        <f t="shared" si="6"/>
-        <v>0.5924242424243289</v>
-      </c>
-      <c r="Z14" s="5">
-        <f t="shared" si="7"/>
-        <v>0.35096648301204003</v>
-      </c>
-    </row>
-    <row r="15" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="Q15" s="5">
-        <v>9</v>
-      </c>
-      <c r="R15" s="5">
-        <v>27</v>
-      </c>
-      <c r="S15" s="5">
+        <v>106.23088680116362</v>
+      </c>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+    </row>
+    <row r="16" spans="5:26" x14ac:dyDescent="0.25">
+      <c r="Q16" s="13">
+        <v>10</v>
+      </c>
+      <c r="R16" s="13">
+        <v>72</v>
+      </c>
+      <c r="S16" s="13">
         <f t="shared" si="0"/>
-        <v>81</v>
-      </c>
-      <c r="T15" s="5">
+        <v>4.2766661190160553</v>
+      </c>
+      <c r="T16" s="13">
         <f t="shared" si="1"/>
-        <v>243</v>
-      </c>
-      <c r="U15" s="5">
-        <f t="shared" si="2"/>
-        <v>729</v>
-      </c>
-      <c r="V15" s="5">
+        <v>100</v>
+      </c>
+      <c r="U16" s="13">
+        <f>Q16*S16</f>
+        <v>42.766661190160555</v>
+      </c>
+      <c r="V16" s="13">
         <f t="shared" si="3"/>
-        <v>6561</v>
-      </c>
-      <c r="W15" s="5">
+        <v>73.68650857118773</v>
+      </c>
+      <c r="W16" s="13">
         <f t="shared" si="4"/>
-        <v>2187</v>
-      </c>
-      <c r="X15" s="5">
+        <v>-1.6865085711877299</v>
+      </c>
+      <c r="X16" s="13">
         <f t="shared" si="5"/>
-        <v>27.203030303030197</v>
-      </c>
-      <c r="Y15" s="5">
-        <f t="shared" si="6"/>
-        <v>-0.20303030303019654</v>
-      </c>
-      <c r="Z15" s="5">
-        <f t="shared" si="7"/>
-        <v>4.1221303948533433E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="5:26" x14ac:dyDescent="0.25">
-      <c r="Q16" s="5">
-        <v>10</v>
-      </c>
-      <c r="R16" s="5">
-        <v>31</v>
-      </c>
-      <c r="S16" s="5">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="T16" s="5">
-        <f t="shared" si="1"/>
-        <v>310</v>
-      </c>
-      <c r="U16" s="5">
-        <f t="shared" si="2"/>
-        <v>1000</v>
-      </c>
-      <c r="V16" s="5">
-        <f t="shared" si="3"/>
-        <v>10000</v>
-      </c>
-      <c r="W16" s="5">
-        <f t="shared" si="4"/>
-        <v>3100</v>
-      </c>
-      <c r="X16" s="5">
-        <f t="shared" si="5"/>
-        <v>31.172727272727148</v>
-      </c>
-      <c r="Y16" s="5">
-        <f t="shared" si="6"/>
-        <v>-0.17272727272714761</v>
-      </c>
-      <c r="Z16" s="5">
-        <f t="shared" si="7"/>
-        <v>2.983471074375843E-2</v>
-      </c>
+        <v>2.8443111606896783</v>
+      </c>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
     </row>
     <row r="17" spans="12:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="Q17" s="6">
-        <f>SUM(Q7:Q16)</f>
-        <v>55</v>
-      </c>
-      <c r="R17" s="6">
-        <f t="shared" ref="R17:W17" si="8">SUM(R7:R16)</f>
-        <v>154</v>
-      </c>
-      <c r="S17" s="6">
-        <f t="shared" si="8"/>
-        <v>385</v>
-      </c>
-      <c r="T17" s="6">
-        <f t="shared" si="8"/>
-        <v>1117</v>
-      </c>
-      <c r="U17" s="6">
-        <f t="shared" si="8"/>
-        <v>3025</v>
-      </c>
-      <c r="V17" s="6">
-        <f t="shared" si="8"/>
-        <v>25333</v>
-      </c>
-      <c r="W17" s="6">
-        <f t="shared" si="8"/>
-        <v>8945</v>
-      </c>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5">
-        <f>SUM(Z7:Z16)</f>
-        <v>0.75606060606060588</v>
-      </c>
-    </row>
-    <row r="21" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="Q21">
-        <f>V17</f>
-        <v>25333</v>
-      </c>
-      <c r="R21">
-        <f>U17</f>
-        <v>3025</v>
-      </c>
-      <c r="S21">
-        <f>S17</f>
-        <v>385</v>
-      </c>
-      <c r="U21">
-        <f>W17</f>
-        <v>8945</v>
-      </c>
+      <c r="Q17" s="13">
+        <v>11</v>
+      </c>
+      <c r="R17" s="13">
+        <v>115</v>
+      </c>
+      <c r="S17" s="13">
+        <f t="shared" si="0"/>
+        <v>4.7449321283632502</v>
+      </c>
+      <c r="T17" s="13">
+        <f t="shared" si="1"/>
+        <v>121</v>
+      </c>
+      <c r="U17" s="13">
+        <f>Q17*S17</f>
+        <v>52.194253411995753</v>
+      </c>
+      <c r="V17" s="13">
+        <f t="shared" si="3"/>
+        <v>107.93168245967107</v>
+      </c>
+      <c r="W17" s="13">
+        <f t="shared" si="4"/>
+        <v>7.068317540328934</v>
+      </c>
+      <c r="X17" s="13">
+        <f t="shared" si="5"/>
+        <v>49.961112850921673</v>
+      </c>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13"/>
+    </row>
+    <row r="18" spans="12:26" x14ac:dyDescent="0.25">
+      <c r="Q18" s="17">
+        <v>12</v>
+      </c>
+      <c r="R18" s="13">
+        <v>200</v>
+      </c>
+      <c r="S18" s="13">
+        <f t="shared" si="0"/>
+        <v>5.2983173665480363</v>
+      </c>
+      <c r="T18" s="17">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+      <c r="U18" s="13">
+        <f>Q18*S18</f>
+        <v>63.579808398576432</v>
+      </c>
+      <c r="V18" s="13">
+        <f t="shared" si="3"/>
+        <v>158.0920076749338</v>
+      </c>
+      <c r="W18" s="13">
+        <f t="shared" si="4"/>
+        <v>41.907992325066203</v>
+      </c>
+      <c r="X18" s="13">
+        <f t="shared" si="5"/>
+        <v>1756.2798207178078</v>
+      </c>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13"/>
+    </row>
+    <row r="19" spans="12:26" x14ac:dyDescent="0.25">
+      <c r="Q19" s="6">
+        <f>SUM(Q7:Q18)</f>
+        <v>78</v>
+      </c>
+      <c r="R19" s="6">
+        <f>SUM(R7:R18)</f>
+        <v>523</v>
+      </c>
+      <c r="S19" s="14">
+        <f>SUM(S7:S18)</f>
+        <v>35.54486977638598</v>
+      </c>
+      <c r="T19" s="14">
+        <f>SUM(T7:T18)</f>
+        <v>650</v>
+      </c>
+      <c r="U19" s="6">
+        <f>SUM(U7:U18)</f>
+        <v>285.58724614361967</v>
+      </c>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5">
+        <f>SUM(X7:X18)</f>
+        <v>1970.1367721867391</v>
+      </c>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
     </row>
     <row r="22" spans="12:26" x14ac:dyDescent="0.25">
       <c r="Q22">
-        <f>U17</f>
-        <v>3025</v>
+        <v>12</v>
       </c>
       <c r="R22">
-        <f>S17</f>
-        <v>385</v>
-      </c>
-      <c r="S22">
-        <f>Q17</f>
-        <v>55</v>
-      </c>
-      <c r="U22">
-        <f>T17</f>
-        <v>1117</v>
+        <f>Q19</f>
+        <v>78</v>
+      </c>
+      <c r="T22">
+        <f>S19</f>
+        <v>35.54486977638598</v>
       </c>
     </row>
     <row r="23" spans="12:26" x14ac:dyDescent="0.25">
       <c r="Q23">
-        <f>S17</f>
-        <v>385</v>
+        <f>Q19</f>
+        <v>78</v>
       </c>
       <c r="R23">
-        <f>Q17</f>
-        <v>55</v>
-      </c>
-      <c r="S23">
-        <v>10</v>
-      </c>
-      <c r="U23">
-        <f>R17</f>
-        <v>154</v>
+        <f>T19</f>
+        <v>650</v>
+      </c>
+      <c r="T23">
+        <f>U19</f>
+        <v>285.58724614361967</v>
       </c>
     </row>
     <row r="25" spans="12:26" x14ac:dyDescent="0.25">
       <c r="Q25">
-        <f t="array" ref="Q25:S27">MINVERSE(Q21:S23)</f>
-        <v>1.8939393939394042E-3</v>
+        <f t="array" ref="Q25:R26">MINVERSE(Q22:R23)</f>
+        <v>0.37878787878787878</v>
       </c>
       <c r="R25">
-        <v>-2.0833333333333457E-2</v>
-      </c>
-      <c r="S25">
-        <v>4.1666666666666956E-2</v>
-      </c>
-      <c r="T25" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="U25">
-        <f t="array" ref="U25:U27">MMULT(Q25:S27,U21:U23)</f>
-        <v>8.7121212121211933E-2</v>
-      </c>
+        <v>-4.5454545454545463E-2</v>
+      </c>
+      <c r="T25" s="2"/>
     </row>
     <row r="26" spans="12:26" x14ac:dyDescent="0.25">
       <c r="Q26">
-        <v>-2.0833333333333454E-2</v>
+        <v>-4.5454545454545456E-2</v>
       </c>
       <c r="R26">
-        <v>0.24128787878788022</v>
-      </c>
-      <c r="S26">
-        <v>-0.52500000000000335</v>
-      </c>
-      <c r="T26" s="2" t="s">
+        <v>6.993006993006993E-3</v>
+      </c>
+      <c r="T26" s="2"/>
+    </row>
+    <row r="27" spans="12:26" x14ac:dyDescent="0.25">
+      <c r="T27" s="2"/>
+    </row>
+    <row r="28" spans="12:26" x14ac:dyDescent="0.25">
+      <c r="Q28" t="s">
+        <v>27</v>
+      </c>
+      <c r="R28">
+        <f t="array" ref="R28:R29">MMULT(Q25:R26,T22:T23)</f>
+        <v>0.48272736331500532</v>
+      </c>
+    </row>
+    <row r="29" spans="12:26" x14ac:dyDescent="0.25">
+      <c r="Q29" t="s">
         <v>16</v>
       </c>
-      <c r="U26">
-        <v>2.3143939393939235</v>
-      </c>
-    </row>
-    <row r="27" spans="12:26" x14ac:dyDescent="0.25">
-      <c r="Q27">
-        <v>4.1666666666666942E-2</v>
-      </c>
-      <c r="R27">
-        <v>-0.52500000000000324</v>
-      </c>
-      <c r="S27">
-        <v>1.3833333333333409</v>
-      </c>
-      <c r="T27" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="U27">
-        <v>-0.68333333333328028</v>
-      </c>
-    </row>
-    <row r="29" spans="12:26" x14ac:dyDescent="0.25">
+      <c r="R29">
+        <v>0.38143771046930608</v>
+      </c>
       <c r="U29" s="2" t="s">
         <v>21</v>
       </c>
       <c r="V29">
         <f>Z17</f>
-        <v>0.75606060606060588</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="12:26" x14ac:dyDescent="0.25">
+      <c r="R32" t="s">
+        <v>15</v>
+      </c>
+      <c r="S32">
+        <f>POWER(2.72,R28)</f>
+        <v>1.6209824065337726</v>
+      </c>
+    </row>
+    <row r="36" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R36">
+        <f>ABS((R7-V7)/R7)</f>
+        <v>0.18716004983255696</v>
+      </c>
+    </row>
+    <row r="37" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R37">
+        <f>ABS((R8-V8)/R8)</f>
+        <v>0.13055874126843847</v>
+      </c>
+    </row>
+    <row r="38" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R38">
+        <f t="shared" ref="R38:R44" si="6">ABS((R9-V9)/R9)</f>
+        <v>0.15099557413920506</v>
+      </c>
+    </row>
+    <row r="39" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R39">
+        <f t="shared" si="6"/>
+        <v>6.732102786832761E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R40">
+        <f t="shared" si="6"/>
+        <v>8.9244308002676728E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R41">
+        <f t="shared" si="6"/>
+        <v>5.1620085948833605E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R42">
+        <f t="shared" si="6"/>
+        <v>0.1723980303134855</v>
+      </c>
+    </row>
+    <row r="43" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R43">
+        <f t="shared" si="6"/>
+        <v>0.22661426841301033</v>
+      </c>
+    </row>
+    <row r="44" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R44">
+        <f t="shared" si="6"/>
+        <v>0.25767092240050538</v>
+      </c>
+    </row>
+    <row r="45" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R45">
+        <f>ABS((R16-V16)/R16)</f>
+        <v>2.3423730155385139E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R46">
+        <f>ABS((R17-V17)/R17)</f>
+        <v>6.1463630785468994E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R47">
+        <f t="shared" ref="R47" si="7">ABS((R18-V18)/R18)</f>
+        <v>0.20953996162533101</v>
+      </c>
+    </row>
+    <row r="48" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R48" s="18">
+        <f>SUM(R36:R47)</f>
+        <v>1.5769064456638797</v>
+      </c>
+    </row>
+    <row r="50" spans="8:19" x14ac:dyDescent="0.25">
+      <c r="R50" t="s">
+        <v>30</v>
+      </c>
+      <c r="S50" s="12">
+        <f>R48/12</f>
+        <v>0.13140887047198999</v>
+      </c>
+    </row>
+    <row r="63" spans="8:19" x14ac:dyDescent="0.25">
+      <c r="H63" s="5">
+        <v>1</v>
+      </c>
+      <c r="I63" s="5">
+        <v>2</v>
+      </c>
+      <c r="J63" s="5">
+        <v>3</v>
+      </c>
+      <c r="K63" s="5">
+        <v>4</v>
+      </c>
+      <c r="L63" s="5">
+        <v>5</v>
+      </c>
+      <c r="M63" s="5">
+        <v>6</v>
+      </c>
+      <c r="N63" s="5">
+        <v>7</v>
+      </c>
+      <c r="O63" s="5">
+        <v>8</v>
+      </c>
+      <c r="P63" s="5">
+        <v>9</v>
+      </c>
+      <c r="Q63" s="5">
+        <v>10</v>
+      </c>
+      <c r="R63" s="5">
+        <v>11</v>
+      </c>
+      <c r="S63" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="8:19" x14ac:dyDescent="0.25">
+      <c r="H64" s="5">
+        <v>2</v>
+      </c>
+      <c r="I64" s="5">
+        <v>4</v>
+      </c>
+      <c r="J64" s="5">
+        <v>6</v>
+      </c>
+      <c r="K64" s="5">
+        <v>8</v>
+      </c>
+      <c r="L64" s="5">
+        <v>12</v>
+      </c>
+      <c r="M64" s="5">
+        <v>16</v>
+      </c>
+      <c r="N64" s="5">
+        <v>20</v>
+      </c>
+      <c r="O64" s="5">
+        <v>28</v>
+      </c>
+      <c r="P64" s="5">
+        <v>40</v>
+      </c>
+      <c r="Q64" s="5">
+        <v>72</v>
+      </c>
+      <c r="R64" s="5">
+        <v>115</v>
+      </c>
+      <c r="S64" s="5">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>